--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230D6B73-5B1D-4E77-9766-EE78026E7B79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBE0806-6AD1-4096-A2C4-7078BFDE9C51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -29,16 +29,39 @@
   </si>
   <si>
     <t>SearchKeyword</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Qarc@2019</t>
+  </si>
+  <si>
+    <t>Incident</t>
+  </si>
+  <si>
+    <t>Dec@321654</t>
+  </si>
+  <si>
+    <t>Eurobank2@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -61,13 +84,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -346,14 +372,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -368,7 +396,45 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6C101495-E94B-483C-8DBD-F5B8E984D77B}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{29CC7648-ACD5-4C9D-8C76-181EAD2C8ED2}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{7135787B-BEDC-480C-B382-5267450D95AC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>